--- a/CubeSatTeamRoster.xlsx
+++ b/CubeSatTeamRoster.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Charles Denis</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>2015-16 AEM4331 CubeSat Team</t>
+  </si>
+  <si>
+    <t>Subgroup</t>
+  </si>
+  <si>
+    <t>Communications</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,6 +211,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -487,9 +502,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -497,14 +512,16 @@
   <cols>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -514,8 +531,11 @@
       <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -525,8 +545,11 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -537,7 +560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -548,7 +571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -559,7 +582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -570,7 +593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -581,7 +604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -592,7 +615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -603,7 +626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -614,23 +637,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>

--- a/CubeSatTeamRoster.xlsx
+++ b/CubeSatTeamRoster.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Desktop\CubeSat\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="13400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Charles Denis</t>
   </si>
@@ -123,6 +121,9 @@
   </si>
   <si>
     <t>Communications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power </t>
   </si>
 </sst>
 </file>
@@ -282,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,7 +318,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,7 +495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -504,24 +505,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="9"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="20.25" customHeight="1">
       <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -535,7 +536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -549,7 +550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -560,7 +561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -571,7 +572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -582,7 +583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -592,8 +593,11 @@
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -604,7 +608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -615,7 +619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -626,7 +630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -637,51 +641,51 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="C23" s="2"/>
     </row>
   </sheetData>
@@ -697,6 +701,11 @@
     <hyperlink ref="B11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/CubeSatTeamRoster.xlsx
+++ b/CubeSatTeamRoster.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Desktop\CubeSat\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Charles Denis</t>
   </si>
@@ -123,6 +118,9 @@
   </si>
   <si>
     <t>Communications</t>
+  </si>
+  <si>
+    <t>ADNCS</t>
   </si>
 </sst>
 </file>
@@ -494,7 +492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,7 +503,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +556,9 @@
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">

--- a/CubeSatTeamRoster.xlsx
+++ b/CubeSatTeamRoster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Charles Denis</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>ADNCS</t>
+  </si>
+  <si>
+    <t>Power systems</t>
   </si>
 </sst>
 </file>
@@ -226,6 +229,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -242,7 +313,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="424C3E"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -492,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,7 +574,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,6 +674,9 @@
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/CubeSatTeamRoster.xlsx
+++ b/CubeSatTeamRoster.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Charles Denis</t>
   </si>
@@ -229,74 +229,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -313,7 +245,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="424C3E"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -563,7 +495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -574,7 +506,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,6 +642,9 @@
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/CubeSatTeamRoster.xlsx
+++ b/CubeSatTeamRoster.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JustinSeif\Documents\GitHub\CubeSat\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="13400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="13404"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Charles Denis</t>
   </si>
@@ -124,6 +129,9 @@
   </si>
   <si>
     <t xml:space="preserve">Power </t>
+  </si>
+  <si>
+    <t>Power</t>
   </si>
 </sst>
 </file>
@@ -495,7 +503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,23 +514,23 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="25.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="25.33203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="20.25" customHeight="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -536,7 +544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -550,7 +558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -561,7 +569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -571,8 +579,11 @@
       <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -583,7 +594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -597,7 +608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -608,7 +619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -619,7 +630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -630,7 +641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -641,51 +652,51 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
     </row>
   </sheetData>
